--- a/results/df-fa-seven-cluster-rank.xlsx
+++ b/results/df-fa-seven-cluster-rank.xlsx
@@ -445,7 +445,7 @@
         <v>1.290680923729942</v>
       </c>
       <c r="J2">
-        <v>0.2167849699921554</v>
+        <v>0.2463713788039732</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -482,7 +482,7 @@
         <v>1.10678468687439</v>
       </c>
       <c r="J3">
-        <v>1.057710769742646</v>
+        <v>1.086903102707644</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -519,7 +519,7 @@
         <v>1.463617504727127</v>
       </c>
       <c r="J4">
-        <v>0.04384838899497101</v>
+        <v>0.07343479780678885</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -556,10 +556,10 @@
         <v>1.140219753872458</v>
       </c>
       <c r="J5">
-        <v>2.005915107873558</v>
+        <v>1.053468035709576</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -593,10 +593,10 @@
         <v>1.07392179955581</v>
       </c>
       <c r="J6">
-        <v>3.072911239448368</v>
+        <v>1.119765990026223</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>0.722098386486016</v>
       </c>
       <c r="J7">
-        <v>1.442397070131019</v>
+        <v>1.471589403096018</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -667,7 +667,7 @@
         <v>1.295383733040867</v>
       </c>
       <c r="J8">
-        <v>0.2120821606812304</v>
+        <v>0.2416685694930483</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -704,10 +704,10 @@
         <v>1.275859663554353</v>
       </c>
       <c r="J9">
-        <v>2.870973375449825</v>
+        <v>0.9178281260276806</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -741,7 +741,7 @@
         <v>1.274359260772145</v>
       </c>
       <c r="J10">
-        <v>0.2331066329499525</v>
+        <v>0.2626930417617703</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -778,10 +778,10 @@
         <v>1.637727577858179</v>
       </c>
       <c r="J11">
-        <v>3.53794398809999</v>
+        <v>0.1006752753242637</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -815,10 +815,10 @@
         <v>0.8622058641905357</v>
       </c>
       <c r="J12">
-        <v>0.6452600295315618</v>
+        <v>1.331481925391498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -852,7 +852,7 @@
         <v>1.273305022314511</v>
       </c>
       <c r="J13">
-        <v>0.2341608714075867</v>
+        <v>0.2637472802194045</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>1.409366712350954</v>
       </c>
       <c r="J14">
-        <v>0.09809918137114337</v>
+        <v>0.1276855901829612</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -926,10 +926,10 @@
         <v>1.088594073045872</v>
       </c>
       <c r="J15">
-        <v>2.057540788700144</v>
+        <v>1.105093716536162</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -963,10 +963,10 @@
         <v>1.234466701256741</v>
       </c>
       <c r="J16">
-        <v>2.912366337747438</v>
+        <v>0.959221088325293</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1000,10 +1000,10 @@
         <v>1.307240189736932</v>
       </c>
       <c r="J17">
-        <v>2.839592849267246</v>
+        <v>0.2298121127969834</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1037,10 +1037,10 @@
         <v>1.507781360593789</v>
       </c>
       <c r="J18">
-        <v>3.66789020536438</v>
+        <v>0.02927094194012647</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,10 +1074,10 @@
         <v>1.366240173047387</v>
       </c>
       <c r="J19">
-        <v>2.780592865956791</v>
+        <v>0.1708121294865281</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1111,7 +1111,7 @@
         <v>1.272293576892341</v>
       </c>
       <c r="J20">
-        <v>0.8922018797246949</v>
+        <v>0.9213942126896932</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1148,10 +1148,10 @@
         <v>1.167888879532004</v>
       </c>
       <c r="J21">
-        <v>1.978245982214011</v>
+        <v>1.02579891005003</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1185,7 +1185,7 @@
         <v>1.296497900408637</v>
       </c>
       <c r="J22">
-        <v>0.2109679933134607</v>
+        <v>0.2405544021252786</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1222,10 +1222,10 @@
         <v>1.33764741547506</v>
       </c>
       <c r="J23">
-        <v>2.809185623529119</v>
+        <v>0.1994048870588556</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1259,10 +1259,10 @@
         <v>1.364698287193709</v>
       </c>
       <c r="J24">
-        <v>3.810973278764459</v>
+        <v>0.1723540153402059</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1296,10 +1296,10 @@
         <v>1.278334950977597</v>
       </c>
       <c r="J25">
-        <v>2.868498088026581</v>
+        <v>0.9153528386044367</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1333,10 +1333,10 @@
         <v>1.535853188532121</v>
       </c>
       <c r="J26">
-        <v>2.610979850472058</v>
+        <v>0.001199114001794399</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1370,10 +1370,10 @@
         <v>1.287344352751369</v>
       </c>
       <c r="J27">
-        <v>2.859488686252809</v>
+        <v>0.2497079497825461</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1407,7 +1407,7 @@
         <v>1.117440703777999</v>
       </c>
       <c r="J28">
-        <v>1.047054752839036</v>
+        <v>1.076247085804035</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1444,7 +1444,7 @@
         <v>1.066735902357789</v>
       </c>
       <c r="J29">
-        <v>0.440729991364309</v>
+        <v>0.4703164001761269</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>1.0684105579979</v>
       </c>
       <c r="J30">
-        <v>1.096084898619136</v>
+        <v>1.125277231584134</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1518,10 +1518,10 @@
         <v>1.575701439226536</v>
       </c>
       <c r="J31">
-        <v>3.599970126731633</v>
+        <v>0.03864913669262049</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1555,7 +1555,7 @@
         <v>1.069439925937441</v>
       </c>
       <c r="J32">
-        <v>1.095055530679594</v>
+        <v>1.124247863644593</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1592,10 +1592,10 @@
         <v>1.034278779927258</v>
       </c>
       <c r="J33">
-        <v>3.11255425907692</v>
+        <v>1.159409009654775</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1629,7 +1629,7 @@
         <v>0.9524278589258082</v>
       </c>
       <c r="J34">
-        <v>1.212067597691227</v>
+        <v>1.241259930656226</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1666,7 +1666,7 @@
         <v>1.031499104858184</v>
       </c>
       <c r="J35">
-        <v>1.132996351758851</v>
+        <v>1.162188684723849</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1703,10 +1703,10 @@
         <v>1.280692228567659</v>
       </c>
       <c r="J36">
-        <v>2.86614081043652</v>
+        <v>0.2563600739662568</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1740,10 +1740,10 @@
         <v>1.294531836810836</v>
       </c>
       <c r="J37">
-        <v>2.852301202193343</v>
+        <v>0.8991559527711976</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1777,10 +1777,10 @@
         <v>1.558796238157575</v>
       </c>
       <c r="J38">
-        <v>2.588036800846603</v>
+        <v>0.02174393562365995</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1814,7 +1814,7 @@
         <v>1.412601000958848</v>
       </c>
       <c r="J39">
-        <v>0.09486489276324961</v>
+        <v>0.1244513015750675</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -1851,7 +1851,7 @@
         <v>1.586758439288574</v>
       </c>
       <c r="J40">
-        <v>0.07929254556647636</v>
+        <v>0.04970613675465851</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>1.358758334502276</v>
       </c>
       <c r="J41">
-        <v>0.1487075592198213</v>
+        <v>0.1782939680316391</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>1.012164042915734</v>
       </c>
       <c r="J42">
-        <v>1.152331413701301</v>
+        <v>1.1815237466663</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -1962,7 +1962,7 @@
         <v>1.486117821441759</v>
       </c>
       <c r="J43">
-        <v>0.02134807228033808</v>
+        <v>0.05093448109215593</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>1.490029849400222</v>
       </c>
       <c r="J44">
-        <v>0.01743604432187507</v>
+        <v>0.04702245313369291</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -2036,10 +2036,10 @@
         <v>1.039809117936859</v>
       </c>
       <c r="J45">
-        <v>2.106325743809156</v>
+        <v>1.153878671645174</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2073,10 +2073,10 @@
         <v>1.019816746744025</v>
       </c>
       <c r="J46">
-        <v>2.126318115001991</v>
+        <v>1.173871042838009</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2110,7 +2110,7 @@
         <v>1.386461541948509</v>
       </c>
       <c r="J47">
-        <v>0.1210043517735888</v>
+        <v>0.1505907605854067</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>1.194201474560198</v>
       </c>
       <c r="J48">
-        <v>0.3132644191618996</v>
+        <v>0.3428508279737175</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2184,10 +2184,10 @@
         <v>1.305910065185653</v>
       </c>
       <c r="J49">
-        <v>2.840922973818526</v>
+        <v>0.8877777243963809</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2221,10 +2221,10 @@
         <v>1.085855025704954</v>
       </c>
       <c r="J50">
-        <v>3.060978013299225</v>
+        <v>1.10783276387708</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2258,10 +2258,10 @@
         <v>1.235013729017326</v>
       </c>
       <c r="J51">
-        <v>2.911819309986852</v>
+        <v>0.9586740605647073</v>
       </c>
       <c r="K51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2295,7 +2295,7 @@
         <v>1.550656678888003</v>
       </c>
       <c r="J52">
-        <v>0.04319078516590591</v>
+        <v>0.01360437635408807</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>1.33772638486703</v>
       </c>
       <c r="J53">
-        <v>0.1697395088550671</v>
+        <v>0.1993259176668849</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -2369,7 +2369,7 @@
         <v>0.7750785369754424</v>
       </c>
       <c r="J54">
-        <v>1.389416919641593</v>
+        <v>1.418609252606591</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2406,7 +2406,7 @@
         <v>1.484937061061998</v>
       </c>
       <c r="J55">
-        <v>0.02252883266009986</v>
+        <v>0.05211524147191771</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -2443,10 +2443,10 @@
         <v>1.207213073993642</v>
       </c>
       <c r="J56">
-        <v>1.938921787752373</v>
+        <v>0.9864747155883917</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2480,7 +2480,7 @@
         <v>1.050291689584706</v>
       </c>
       <c r="J57">
-        <v>1.114203767032329</v>
+        <v>1.143396099997328</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2517,10 +2517,10 @@
         <v>1.546529115946338</v>
       </c>
       <c r="J58">
-        <v>3.629142450011831</v>
+        <v>0.009476813412422347</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2554,10 +2554,10 @@
         <v>1.71051960455865</v>
       </c>
       <c r="J59">
-        <v>2.436313434445529</v>
+        <v>0.1734673020247344</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2591,10 +2591,10 @@
         <v>1.217862421836879</v>
       </c>
       <c r="J60">
-        <v>2.9289706171673</v>
+        <v>0.9758253677451552</v>
       </c>
       <c r="K60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2628,7 +2628,7 @@
         <v>1.503861478189164</v>
       </c>
       <c r="J61">
-        <v>0.003604415532933336</v>
+        <v>0.03319082434475118</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         <v>1.16039553034314</v>
       </c>
       <c r="J62">
-        <v>2.986437508661039</v>
+        <v>1.033292259238894</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2702,10 +2702,10 @@
         <v>1.150374350583949</v>
       </c>
       <c r="J63">
-        <v>2.99645868842023</v>
+        <v>1.043313438998085</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2739,7 +2739,7 @@
         <v>1.341059564010054</v>
       </c>
       <c r="J64">
-        <v>0.1664063297120439</v>
+        <v>0.1959927385238618</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -2776,10 +2776,10 @@
         <v>1.135294770486329</v>
       </c>
       <c r="J65">
-        <v>3.011538268517849</v>
+        <v>1.058393019095704</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2813,7 +2813,7 @@
         <v>1.410648826325331</v>
       </c>
       <c r="J66">
-        <v>0.0968170673967661</v>
+        <v>0.1264034762085839</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1.012927794481286</v>
       </c>
       <c r="J67">
-        <v>1.151567662135749</v>
+        <v>1.180759995100748</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2887,10 +2887,10 @@
         <v>1.186958738645344</v>
       </c>
       <c r="J68">
-        <v>2.959874300358834</v>
+        <v>1.00672905093669</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2924,7 +2924,7 @@
         <v>1.173930247966014</v>
       </c>
       <c r="J69">
-        <v>0.3335356457560839</v>
+        <v>0.3631220545679017</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -2961,10 +2961,10 @@
         <v>0.9524372807012956</v>
       </c>
       <c r="J70">
-        <v>2.19369758104472</v>
+        <v>1.241250508880738</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2998,10 +2998,10 @@
         <v>1.136032533768051</v>
       </c>
       <c r="J71">
-        <v>3.010800505236127</v>
+        <v>1.057655255813983</v>
       </c>
       <c r="K71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3035,10 +3035,10 @@
         <v>0.9606987377807917</v>
       </c>
       <c r="J72">
-        <v>0.5467671559413058</v>
+        <v>1.232989051801242</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3072,7 +3072,7 @@
         <v>1.342051904058943</v>
       </c>
       <c r="J73">
-        <v>0.1654139896631544</v>
+        <v>0.1950003984749722</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>1.196110798943512</v>
       </c>
       <c r="J74">
-        <v>0.3113550947785857</v>
+        <v>0.3409415035904035</v>
       </c>
       <c r="K74">
         <v>1</v>

--- a/results/df-fa-seven-cluster-rank.xlsx
+++ b/results/df-fa-seven-cluster-rank.xlsx
@@ -482,7 +482,7 @@
         <v>1.10678468687439</v>
       </c>
       <c r="J3">
-        <v>1.086903102707644</v>
+        <v>1.052121795405808</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -556,10 +556,10 @@
         <v>1.140219753872458</v>
       </c>
       <c r="J5">
-        <v>1.053468035709576</v>
+        <v>2.017680672556671</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -593,10 +593,10 @@
         <v>1.07392179955581</v>
       </c>
       <c r="J6">
-        <v>1.119765990026223</v>
+        <v>2.083978626873319</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>0.722098386486016</v>
       </c>
       <c r="J7">
-        <v>1.471589403096018</v>
+        <v>1.436808095794182</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -704,10 +704,10 @@
         <v>1.275859663554353</v>
       </c>
       <c r="J9">
-        <v>0.9178281260276806</v>
+        <v>1.882040762874776</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -815,10 +815,10 @@
         <v>0.8622058641905357</v>
       </c>
       <c r="J12">
-        <v>1.331481925391498</v>
+        <v>2.295694562238594</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -926,10 +926,10 @@
         <v>1.088594073045872</v>
       </c>
       <c r="J15">
-        <v>1.105093716536162</v>
+        <v>2.069306353383257</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -963,10 +963,10 @@
         <v>1.234466701256741</v>
       </c>
       <c r="J16">
-        <v>0.959221088325293</v>
+        <v>1.923433725172388</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1111,7 +1111,7 @@
         <v>1.272293576892341</v>
       </c>
       <c r="J20">
-        <v>0.9213942126896932</v>
+        <v>0.8866129053878575</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1148,10 +1148,10 @@
         <v>1.167888879532004</v>
       </c>
       <c r="J21">
-        <v>1.02579891005003</v>
+        <v>1.990011546897125</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1296,10 +1296,10 @@
         <v>1.278334950977597</v>
       </c>
       <c r="J25">
-        <v>0.9153528386044367</v>
+        <v>1.879565475451532</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1407,7 @@
         <v>1.117440703777999</v>
       </c>
       <c r="J28">
-        <v>1.076247085804035</v>
+        <v>1.041465778502199</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1481,7 +1481,7 @@
         <v>1.0684105579979</v>
       </c>
       <c r="J30">
-        <v>1.125277231584134</v>
+        <v>1.090495924282298</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -1555,7 +1555,7 @@
         <v>1.069439925937441</v>
       </c>
       <c r="J32">
-        <v>1.124247863644593</v>
+        <v>1.089466556342757</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1592,7 +1592,7 @@
         <v>1.034278779927258</v>
       </c>
       <c r="J33">
-        <v>1.159409009654775</v>
+        <v>1.12462770235294</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -1629,7 +1629,7 @@
         <v>0.9524278589258082</v>
       </c>
       <c r="J34">
-        <v>1.241259930656226</v>
+        <v>1.20647862335439</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -1666,7 +1666,7 @@
         <v>1.031499104858184</v>
       </c>
       <c r="J35">
-        <v>1.162188684723849</v>
+        <v>1.127407377422014</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -1740,10 +1740,10 @@
         <v>1.294531836810836</v>
       </c>
       <c r="J37">
-        <v>0.8991559527711976</v>
+        <v>1.863368589618293</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1925,7 +1925,7 @@
         <v>1.012164042915734</v>
       </c>
       <c r="J42">
-        <v>1.1815237466663</v>
+        <v>1.146742439364464</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -2036,10 +2036,10 @@
         <v>1.039809117936859</v>
       </c>
       <c r="J45">
-        <v>1.153878671645174</v>
+        <v>2.11809130849227</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2073,10 +2073,10 @@
         <v>1.019816746744025</v>
       </c>
       <c r="J46">
-        <v>1.173871042838009</v>
+        <v>2.138083679685105</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2184,10 +2184,10 @@
         <v>1.305910065185653</v>
       </c>
       <c r="J49">
-        <v>0.8877777243963809</v>
+        <v>1.851990361243476</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2221,7 +2221,7 @@
         <v>1.085855025704954</v>
       </c>
       <c r="J50">
-        <v>1.10783276387708</v>
+        <v>1.073051456575244</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -2258,10 +2258,10 @@
         <v>1.235013729017326</v>
       </c>
       <c r="J51">
-        <v>0.9586740605647073</v>
+        <v>1.922886697411803</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2369,7 +2369,7 @@
         <v>0.7750785369754424</v>
       </c>
       <c r="J54">
-        <v>1.418609252606591</v>
+        <v>1.383827945304756</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -2443,10 +2443,10 @@
         <v>1.207213073993642</v>
       </c>
       <c r="J56">
-        <v>0.9864747155883917</v>
+        <v>1.950687352435487</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2480,7 +2480,7 @@
         <v>1.050291689584706</v>
       </c>
       <c r="J57">
-        <v>1.143396099997328</v>
+        <v>1.108614792695492</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -2591,10 +2591,10 @@
         <v>1.217862421836879</v>
       </c>
       <c r="J60">
-        <v>0.9758253677451552</v>
+        <v>1.940038004592251</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2665,10 +2665,10 @@
         <v>1.16039553034314</v>
       </c>
       <c r="J62">
-        <v>1.033292259238894</v>
+        <v>1.99750489608599</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2702,10 +2702,10 @@
         <v>1.150374350583949</v>
       </c>
       <c r="J63">
-        <v>1.043313438998085</v>
+        <v>2.00752607584518</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2776,10 +2776,10 @@
         <v>1.135294770486329</v>
       </c>
       <c r="J65">
-        <v>1.058393019095704</v>
+        <v>2.0226056559428</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2850,7 +2850,7 @@
         <v>1.012927794481286</v>
       </c>
       <c r="J67">
-        <v>1.180759995100748</v>
+        <v>1.145978687798912</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -2887,10 +2887,10 @@
         <v>1.186958738645344</v>
       </c>
       <c r="J68">
-        <v>1.00672905093669</v>
+        <v>1.970941687783785</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2961,10 +2961,10 @@
         <v>0.9524372807012956</v>
       </c>
       <c r="J70">
-        <v>1.241250508880738</v>
+        <v>2.205463145727833</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2998,10 +2998,10 @@
         <v>1.136032533768051</v>
       </c>
       <c r="J71">
-        <v>1.057655255813983</v>
+        <v>2.021867892661078</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -3035,10 +3035,10 @@
         <v>0.9606987377807917</v>
       </c>
       <c r="J72">
-        <v>1.232989051801242</v>
+        <v>2.197201688648337</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">

--- a/results/df-fa-seven-cluster-rank.xlsx
+++ b/results/df-fa-seven-cluster-rank.xlsx
@@ -447,8 +447,10 @@
       <c r="J2">
         <v>0.2463713788039732</v>
       </c>
-      <c r="K2">
-        <v>1</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -484,8 +486,10 @@
       <c r="J3">
         <v>1.052121795405808</v>
       </c>
-      <c r="K3">
-        <v>2</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -521,8 +525,10 @@
       <c r="J4">
         <v>0.07343479780678885</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -558,8 +564,10 @@
       <c r="J5">
         <v>2.017680672556671</v>
       </c>
-      <c r="K5">
-        <v>3</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -595,8 +603,10 @@
       <c r="J6">
         <v>2.083978626873319</v>
       </c>
-      <c r="K6">
-        <v>3</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -632,8 +642,10 @@
       <c r="J7">
         <v>1.436808095794182</v>
       </c>
-      <c r="K7">
-        <v>2</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -669,8 +681,10 @@
       <c r="J8">
         <v>0.2416685694930483</v>
       </c>
-      <c r="K8">
-        <v>1</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -706,8 +720,10 @@
       <c r="J9">
         <v>1.882040762874776</v>
       </c>
-      <c r="K9">
-        <v>3</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -743,8 +759,10 @@
       <c r="J10">
         <v>0.2626930417617703</v>
       </c>
-      <c r="K10">
-        <v>1</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -780,8 +798,10 @@
       <c r="J11">
         <v>0.1006752753242637</v>
       </c>
-      <c r="K11">
-        <v>1</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -817,8 +837,10 @@
       <c r="J12">
         <v>2.295694562238594</v>
       </c>
-      <c r="K12">
-        <v>3</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -854,8 +876,10 @@
       <c r="J13">
         <v>0.2637472802194045</v>
       </c>
-      <c r="K13">
-        <v>1</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -891,8 +915,10 @@
       <c r="J14">
         <v>0.1276855901829612</v>
       </c>
-      <c r="K14">
-        <v>1</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -928,8 +954,10 @@
       <c r="J15">
         <v>2.069306353383257</v>
       </c>
-      <c r="K15">
-        <v>3</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -965,8 +993,10 @@
       <c r="J16">
         <v>1.923433725172388</v>
       </c>
-      <c r="K16">
-        <v>3</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1002,8 +1032,10 @@
       <c r="J17">
         <v>0.2298121127969834</v>
       </c>
-      <c r="K17">
-        <v>1</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1039,8 +1071,10 @@
       <c r="J18">
         <v>0.02927094194012647</v>
       </c>
-      <c r="K18">
-        <v>1</v>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1076,8 +1110,10 @@
       <c r="J19">
         <v>0.1708121294865281</v>
       </c>
-      <c r="K19">
-        <v>1</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1113,8 +1149,10 @@
       <c r="J20">
         <v>0.8866129053878575</v>
       </c>
-      <c r="K20">
-        <v>2</v>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1150,8 +1188,10 @@
       <c r="J21">
         <v>1.990011546897125</v>
       </c>
-      <c r="K21">
-        <v>3</v>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1187,8 +1227,10 @@
       <c r="J22">
         <v>0.2405544021252786</v>
       </c>
-      <c r="K22">
-        <v>1</v>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1224,8 +1266,10 @@
       <c r="J23">
         <v>0.1994048870588556</v>
       </c>
-      <c r="K23">
-        <v>1</v>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1261,8 +1305,10 @@
       <c r="J24">
         <v>0.1723540153402059</v>
       </c>
-      <c r="K24">
-        <v>1</v>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1298,8 +1344,10 @@
       <c r="J25">
         <v>1.879565475451532</v>
       </c>
-      <c r="K25">
-        <v>3</v>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1335,8 +1383,10 @@
       <c r="J26">
         <v>0.001199114001794399</v>
       </c>
-      <c r="K26">
-        <v>1</v>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1372,8 +1422,10 @@
       <c r="J27">
         <v>0.2497079497825461</v>
       </c>
-      <c r="K27">
-        <v>1</v>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1409,8 +1461,10 @@
       <c r="J28">
         <v>1.041465778502199</v>
       </c>
-      <c r="K28">
-        <v>2</v>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1446,8 +1500,10 @@
       <c r="J29">
         <v>0.4703164001761269</v>
       </c>
-      <c r="K29">
-        <v>1</v>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1483,8 +1539,10 @@
       <c r="J30">
         <v>1.090495924282298</v>
       </c>
-      <c r="K30">
-        <v>2</v>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1520,8 +1578,10 @@
       <c r="J31">
         <v>0.03864913669262049</v>
       </c>
-      <c r="K31">
-        <v>1</v>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1557,8 +1617,10 @@
       <c r="J32">
         <v>1.089466556342757</v>
       </c>
-      <c r="K32">
-        <v>2</v>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1594,8 +1656,10 @@
       <c r="J33">
         <v>1.12462770235294</v>
       </c>
-      <c r="K33">
-        <v>2</v>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1631,8 +1695,10 @@
       <c r="J34">
         <v>1.20647862335439</v>
       </c>
-      <c r="K34">
-        <v>2</v>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1668,8 +1734,10 @@
       <c r="J35">
         <v>1.127407377422014</v>
       </c>
-      <c r="K35">
-        <v>2</v>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1705,8 +1773,10 @@
       <c r="J36">
         <v>0.2563600739662568</v>
       </c>
-      <c r="K36">
-        <v>1</v>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1742,8 +1812,10 @@
       <c r="J37">
         <v>1.863368589618293</v>
       </c>
-      <c r="K37">
-        <v>3</v>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1779,8 +1851,10 @@
       <c r="J38">
         <v>0.02174393562365995</v>
       </c>
-      <c r="K38">
-        <v>1</v>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1816,8 +1890,10 @@
       <c r="J39">
         <v>0.1244513015750675</v>
       </c>
-      <c r="K39">
-        <v>1</v>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1853,8 +1929,10 @@
       <c r="J40">
         <v>0.04970613675465851</v>
       </c>
-      <c r="K40">
-        <v>1</v>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1890,8 +1968,10 @@
       <c r="J41">
         <v>0.1782939680316391</v>
       </c>
-      <c r="K41">
-        <v>1</v>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1927,8 +2007,10 @@
       <c r="J42">
         <v>1.146742439364464</v>
       </c>
-      <c r="K42">
-        <v>2</v>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1964,8 +2046,10 @@
       <c r="J43">
         <v>0.05093448109215593</v>
       </c>
-      <c r="K43">
-        <v>1</v>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2001,8 +2085,10 @@
       <c r="J44">
         <v>0.04702245313369291</v>
       </c>
-      <c r="K44">
-        <v>1</v>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2038,8 +2124,10 @@
       <c r="J45">
         <v>2.11809130849227</v>
       </c>
-      <c r="K45">
-        <v>3</v>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2075,8 +2163,10 @@
       <c r="J46">
         <v>2.138083679685105</v>
       </c>
-      <c r="K46">
-        <v>3</v>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2112,8 +2202,10 @@
       <c r="J47">
         <v>0.1505907605854067</v>
       </c>
-      <c r="K47">
-        <v>1</v>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2149,8 +2241,10 @@
       <c r="J48">
         <v>0.3428508279737175</v>
       </c>
-      <c r="K48">
-        <v>1</v>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2186,8 +2280,10 @@
       <c r="J49">
         <v>1.851990361243476</v>
       </c>
-      <c r="K49">
-        <v>3</v>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2223,8 +2319,10 @@
       <c r="J50">
         <v>1.073051456575244</v>
       </c>
-      <c r="K50">
-        <v>2</v>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2260,8 +2358,10 @@
       <c r="J51">
         <v>1.922886697411803</v>
       </c>
-      <c r="K51">
-        <v>3</v>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2297,8 +2397,10 @@
       <c r="J52">
         <v>0.01360437635408807</v>
       </c>
-      <c r="K52">
-        <v>1</v>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2334,8 +2436,10 @@
       <c r="J53">
         <v>0.1993259176668849</v>
       </c>
-      <c r="K53">
-        <v>1</v>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2371,8 +2475,10 @@
       <c r="J54">
         <v>1.383827945304756</v>
       </c>
-      <c r="K54">
-        <v>2</v>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2408,8 +2514,10 @@
       <c r="J55">
         <v>0.05211524147191771</v>
       </c>
-      <c r="K55">
-        <v>1</v>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2445,8 +2553,10 @@
       <c r="J56">
         <v>1.950687352435487</v>
       </c>
-      <c r="K56">
-        <v>3</v>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2482,8 +2592,10 @@
       <c r="J57">
         <v>1.108614792695492</v>
       </c>
-      <c r="K57">
-        <v>2</v>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2519,8 +2631,10 @@
       <c r="J58">
         <v>0.009476813412422347</v>
       </c>
-      <c r="K58">
-        <v>1</v>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2556,8 +2670,10 @@
       <c r="J59">
         <v>0.1734673020247344</v>
       </c>
-      <c r="K59">
-        <v>1</v>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2593,8 +2709,10 @@
       <c r="J60">
         <v>1.940038004592251</v>
       </c>
-      <c r="K60">
-        <v>3</v>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2630,8 +2748,10 @@
       <c r="J61">
         <v>0.03319082434475118</v>
       </c>
-      <c r="K61">
-        <v>1</v>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2667,8 +2787,10 @@
       <c r="J62">
         <v>1.99750489608599</v>
       </c>
-      <c r="K62">
-        <v>3</v>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2704,8 +2826,10 @@
       <c r="J63">
         <v>2.00752607584518</v>
       </c>
-      <c r="K63">
-        <v>3</v>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2741,8 +2865,10 @@
       <c r="J64">
         <v>0.1959927385238618</v>
       </c>
-      <c r="K64">
-        <v>1</v>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2778,8 +2904,10 @@
       <c r="J65">
         <v>2.0226056559428</v>
       </c>
-      <c r="K65">
-        <v>3</v>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2815,8 +2943,10 @@
       <c r="J66">
         <v>0.1264034762085839</v>
       </c>
-      <c r="K66">
-        <v>1</v>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2852,8 +2982,10 @@
       <c r="J67">
         <v>1.145978687798912</v>
       </c>
-      <c r="K67">
-        <v>2</v>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2889,8 +3021,10 @@
       <c r="J68">
         <v>1.970941687783785</v>
       </c>
-      <c r="K68">
-        <v>3</v>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2926,8 +3060,10 @@
       <c r="J69">
         <v>0.3631220545679017</v>
       </c>
-      <c r="K69">
-        <v>1</v>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2963,8 +3099,10 @@
       <c r="J70">
         <v>2.205463145727833</v>
       </c>
-      <c r="K70">
-        <v>3</v>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3000,8 +3138,10 @@
       <c r="J71">
         <v>2.021867892661078</v>
       </c>
-      <c r="K71">
-        <v>3</v>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3037,8 +3177,10 @@
       <c r="J72">
         <v>2.197201688648337</v>
       </c>
-      <c r="K72">
-        <v>3</v>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3074,8 +3216,10 @@
       <c r="J73">
         <v>0.1950003984749722</v>
       </c>
-      <c r="K73">
-        <v>1</v>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3111,8 +3255,10 @@
       <c r="J74">
         <v>0.3409415035904035</v>
       </c>
-      <c r="K74">
-        <v>1</v>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/df-fa-seven-cluster-rank.xlsx
+++ b/results/df-fa-seven-cluster-rank.xlsx
@@ -365,37 +365,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dugwell</t>
+          <t>ML1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>ML6</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>piped_home</t>
+          <t>ML3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>piped_yard_tap</t>
+          <t>ML5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cheap_commercial</t>
+          <t>ML2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>surface_water</t>
+          <t>ML7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>thirthy_min_less_travel</t>
+          <t>ML4</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
